--- a/LCMR results.xlsx
+++ b/LCMR results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35822225-046D-4A5F-909A-13563F860F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299F2E3-D0A0-41CD-ADF3-89A345A04F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tempi LCMR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Indian Pines</t>
   </si>
@@ -85,9 +85,6 @@
     <t>• Tesla K40c</t>
   </si>
   <si>
-    <t>Tempi sul ciclo for principale</t>
-  </si>
-  <si>
     <t>Speedup C/Cuda</t>
   </si>
   <si>
@@ -113,6 +110,15 @@
   </si>
   <si>
     <t>Cuda (s)</t>
+  </si>
+  <si>
+    <t>Tempi sul ciclo for principale (OpenMP + Cuda)</t>
+  </si>
+  <si>
+    <t>OpenMP (s)</t>
+  </si>
+  <si>
+    <t>Tempi sulla generazione delle matrici delle covarianze e riduzione rumore (pre-processing with OpenMP)</t>
   </si>
 </sst>
 </file>
@@ -159,12 +165,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,14 +201,18 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -201,7 +223,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -259,6 +281,22 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -273,6 +311,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{341BE3AE-AADF-4CDD-AC02-5C7AF82FA4F1}" name="Tabella13" displayName="Tabella13" ref="A13:H18" totalsRowShown="0">
+  <autoFilter ref="A13:H18" xr:uid="{341BE3AE-AADF-4CDD-AC02-5C7AF82FA4F1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6162FA58-ECC7-48EC-9308-A19B7E1911C2}" name="Colonna1"/>
+    <tableColumn id="2" xr3:uid="{232694B9-66B0-4C54-B0E9-9E0C28065554}" name="Colonna2"/>
+    <tableColumn id="3" xr3:uid="{FD5536A8-B9B0-4747-9538-5098D48E7AA7}" name="Colonna3"/>
+    <tableColumn id="4" xr3:uid="{6EC92283-44E9-4DC0-818E-CE182AD35485}" name="Colonna4"/>
+    <tableColumn id="5" xr3:uid="{27942067-BE2A-4C33-9F00-E32FA8CDD54D}" name="Colonna5"/>
+    <tableColumn id="6" xr3:uid="{42145F81-F9AB-4C04-A2AA-571ED1E419B0}" name="Colonna6"/>
+    <tableColumn id="7" xr3:uid="{0AE20CF6-256D-4A10-AB81-EBBA11E36616}" name="Colonna7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{945D652E-C7F4-41FD-9AB0-7EF33922BD8B}" name="Colonna8" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A2:H7" totalsRowShown="0">
   <autoFilter ref="A2:H7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
@@ -289,7 +344,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{63DA67F6-28A2-4096-B66A-462C41800A88}" name="Tabella3" displayName="Tabella3" ref="A3:F8" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="A3:F8" xr:uid="{63DA67F6-28A2-4096-B66A-462C41800A88}"/>
   <tableColumns count="6">
@@ -604,7 +659,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,16 +671,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -657,18 +712,18 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" t="s">
@@ -680,21 +735,21 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>1.33</v>
+      </c>
+      <c r="D4">
+        <v>6.49</v>
+      </c>
+      <c r="E4">
         <v>1.42</v>
       </c>
-      <c r="D4">
-        <v>6.98</v>
-      </c>
-      <c r="E4">
-        <v>1.48</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f>D4/E4</f>
-        <v>4.7162162162162167</v>
-      </c>
-      <c r="H4" s="5">
+        <v>4.570422535211268</v>
+      </c>
+      <c r="H4" s="3">
         <f>C4/E4</f>
-        <v>0.95945945945945943</v>
+        <v>0.93661971830985924</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -705,21 +760,21 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7.42</v>
+        <v>6.22</v>
       </c>
       <c r="D5">
-        <v>47.54</v>
+        <v>46.15</v>
       </c>
       <c r="E5">
-        <v>20.54</v>
-      </c>
-      <c r="G5" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="G5" s="3">
         <f>D5/E5</f>
-        <v>2.3145082765335929</v>
-      </c>
-      <c r="H5" s="5">
+        <v>2.6073446327683616</v>
+      </c>
+      <c r="H5" s="3">
         <f>C5/E5</f>
-        <v>0.36124634858812077</v>
+        <v>0.35141242937853107</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -730,21 +785,21 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>6.39</v>
+        <v>6.17</v>
       </c>
       <c r="D6">
-        <v>42.41</v>
+        <v>42.01</v>
       </c>
       <c r="E6">
-        <v>15.59</v>
-      </c>
-      <c r="G6" s="5">
+        <v>13.04</v>
+      </c>
+      <c r="G6" s="3">
         <f>D6/E6</f>
-        <v>2.7203335471456058</v>
-      </c>
-      <c r="H6" s="5">
+        <v>3.2216257668711656</v>
+      </c>
+      <c r="H6" s="3">
         <f>C6/E6</f>
-        <v>0.40987812700449006</v>
+        <v>0.47315950920245403</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -752,63 +807,179 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>23.77</v>
+        <v>23.49</v>
       </c>
       <c r="D7">
-        <v>247.05</v>
+        <v>247.64</v>
       </c>
       <c r="E7">
-        <v>146.30000000000001</v>
-      </c>
-      <c r="G7" s="5">
+        <v>133.66999999999999</v>
+      </c>
+      <c r="G7" s="3">
         <f>D7/E7</f>
-        <v>1.6886534518113465</v>
-      </c>
-      <c r="H7" s="5">
+        <v>1.852622129123962</v>
+      </c>
+      <c r="H7" s="3">
         <f>C7/E7</f>
-        <v>0.1624743677375256</v>
+        <v>0.17573127852173262</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>6.76</v>
+      </c>
+      <c r="D15">
+        <v>28.16</v>
+      </c>
+      <c r="E15">
+        <v>21.31</v>
+      </c>
+      <c r="G15" s="3">
+        <f>D15/E15</f>
+        <v>1.321445330830596</v>
+      </c>
+      <c r="H15" s="3">
+        <f>C15/E15</f>
+        <v>0.31722196152041299</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>36.72</v>
+      </c>
+      <c r="D16">
+        <v>151.54</v>
+      </c>
+      <c r="E16">
+        <v>113.93</v>
+      </c>
+      <c r="G16" s="3">
+        <f>D16/E16</f>
+        <v>1.3301149828842269</v>
+      </c>
+      <c r="H16" s="3">
+        <f>C16/E16</f>
+        <v>0.32230316861230579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>59.86</v>
+      </c>
+      <c r="D17">
+        <v>224.98</v>
+      </c>
+      <c r="E17">
+        <v>195.5</v>
+      </c>
+      <c r="G17" s="3">
+        <f>D17/E17</f>
+        <v>1.1507928388746802</v>
+      </c>
+      <c r="H17" s="3">
+        <f>C17/E17</f>
+        <v>0.30618925831202048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>182.49</v>
+      </c>
+      <c r="D18">
+        <v>861.21</v>
+      </c>
+      <c r="E18">
+        <v>743.74</v>
+      </c>
+      <c r="G18" s="3">
+        <f>D18/E18</f>
+        <v>1.1579449807728508</v>
+      </c>
+      <c r="H18" s="3">
+        <f>C18/E18</f>
+        <v>0.24536800494796571</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -818,7 +989,7 @@
   <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,16 +1024,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,7 +1098,7 @@
         <v>715</v>
       </c>
       <c r="E8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -935,7 +1106,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
